--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H2">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N2">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q2">
-        <v>0.06970945040411111</v>
+        <v>0.007491354827000001</v>
       </c>
       <c r="R2">
-        <v>0.627385053637</v>
+        <v>0.067422193443</v>
       </c>
       <c r="S2">
-        <v>0.02689753194211469</v>
+        <v>0.0128629387136544</v>
       </c>
       <c r="T2">
-        <v>0.02689753194211469</v>
+        <v>0.0128629387136544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H3">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.054489</v>
       </c>
       <c r="O3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q3">
-        <v>0.2612753285296667</v>
+        <v>0.08717360192900001</v>
       </c>
       <c r="R3">
-        <v>2.351477956767</v>
+        <v>0.7845624173610001</v>
       </c>
       <c r="S3">
-        <v>0.1008136121296799</v>
+        <v>0.1496803615575467</v>
       </c>
       <c r="T3">
-        <v>0.10081361212968</v>
+        <v>0.1496803615575467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H4">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N4">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O4">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P4">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q4">
-        <v>0.2434815754934444</v>
+        <v>0.051037214139</v>
       </c>
       <c r="R4">
-        <v>2.191334179441</v>
+        <v>0.459334927251</v>
       </c>
       <c r="S4">
-        <v>0.09394785665624902</v>
+        <v>0.0876328211313028</v>
       </c>
       <c r="T4">
-        <v>0.09394785665624902</v>
+        <v>0.0876328211313028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H5">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I5">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J5">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N5">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O5">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P5">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q5">
-        <v>0.2447801492744445</v>
+        <v>0.02245296913566667</v>
       </c>
       <c r="R5">
-        <v>2.20302134347</v>
+        <v>0.202076722221</v>
       </c>
       <c r="S5">
-        <v>0.09444891396700328</v>
+        <v>0.038552594637586</v>
       </c>
       <c r="T5">
-        <v>0.09444891396700328</v>
+        <v>0.038552594637586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H6">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I6">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J6">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.054489</v>
       </c>
       <c r="O6">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P6">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q6">
-        <v>0.9174511281966666</v>
+        <v>0.2612753285296667</v>
       </c>
       <c r="R6">
-        <v>8.25706015377</v>
+        <v>2.351477956767</v>
       </c>
       <c r="S6">
-        <v>0.3540003669939086</v>
+        <v>0.4486195909656145</v>
       </c>
       <c r="T6">
-        <v>0.3540003669939086</v>
+        <v>0.4486195909656145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H7">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I7">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J7">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N7">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O7">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P7">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q7">
-        <v>0.8549695349677777</v>
+        <v>0.152967923733</v>
       </c>
       <c r="R7">
-        <v>7.69472581471</v>
+        <v>1.376711313597</v>
       </c>
       <c r="S7">
-        <v>0.3298917183110444</v>
+        <v>0.2626516929942957</v>
       </c>
       <c r="T7">
-        <v>0.3298917183110445</v>
+        <v>0.2626516929942957</v>
       </c>
     </row>
   </sheetData>
